--- a/REGULAR/CASUAL-REGULAR FINAL/CAPUNO, DANIELLE VINCE.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/CAPUNO, DANIELLE VINCE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633BF6AC-C079-458B-9E98-2D46945CF253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7385F4-A2F5-426B-88FB-39BE3E1E6550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -2966,10 +2966,10 @@
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="H3" sqref="H3"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3134,7 +3134,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.875</v>
+        <v>10.625</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3144,7 +3144,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>6.875</v>
+        <v>10.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3302,13 +3302,15 @@
         <v>45138</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D17" s="43"/>
       <c r="E17" s="9"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G17" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H17" s="43"/>
       <c r="I17" s="9"/>
@@ -3321,13 +3323,15 @@
         <v>45169</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D18" s="39"/>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="9"/>
@@ -3340,13 +3344,15 @@
         <v>45199</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D19" s="39"/>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G19" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="9"/>
@@ -5439,7 +5445,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>13.75</v>
+        <v>21.25</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
